--- a/backend/generated/7000001-2.xlsx
+++ b/backend/generated/7000001-2.xlsx
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B9" s="18" t="inlineStr">
         <is>
-          <t>04.02.2026</t>
+          <t>10.02.2026</t>
         </is>
       </c>
       <c r="D9" s="17" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E9" s="18" t="inlineStr">
         <is>
-          <t>03.02.2027</t>
+          <t>09.02.2027</t>
         </is>
       </c>
       <c r="G9" s="17" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="J9" s="18" t="inlineStr">
         <is>
-          <t>04.02.2026</t>
+          <t>10.02.2026</t>
         </is>
       </c>
       <c r="K9" s="21" t="n"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C11" s="115" t="inlineStr">
         <is>
-          <t>Иванов Иван Иванович</t>
+          <t>БАЛАШОВ АНТОН ВАДИМОВИЧ</t>
         </is>
       </c>
       <c r="D11" s="35" t="n"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>01.01.1990</t>
+          <t>20.11.2003</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>1111 223344</t>
+          <t>2324 321314</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="H27" s="32" t="n">
-        <v>3784</v>
+        <v>500</v>
       </c>
       <c r="I27" s="30" t="inlineStr">
         <is>
